--- a/Code/Results/Cases/Case_1_153/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_153/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.01596664106497</v>
+        <v>1.053854969768837</v>
       </c>
       <c r="D2">
-        <v>1.051280156761313</v>
+        <v>1.065385528528399</v>
       </c>
       <c r="E2">
-        <v>1.019670910152538</v>
+        <v>1.050444478685133</v>
       </c>
       <c r="F2">
-        <v>1.051091167096073</v>
+        <v>1.072625718102157</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.055705427031252</v>
+        <v>1.05070393706763</v>
       </c>
       <c r="J2">
-        <v>1.037680059169803</v>
+        <v>1.058870125315519</v>
       </c>
       <c r="K2">
-        <v>1.062068479220885</v>
+        <v>1.068098910445472</v>
       </c>
       <c r="L2">
-        <v>1.030862834846546</v>
+        <v>1.053198738339188</v>
       </c>
       <c r="M2">
-        <v>1.061881812889841</v>
+        <v>1.075319734315271</v>
       </c>
       <c r="N2">
-        <v>1.039153683877391</v>
+        <v>1.060373842347568</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.022659918432742</v>
+        <v>1.055213145730025</v>
       </c>
       <c r="D3">
-        <v>1.055607126270035</v>
+        <v>1.066268974430999</v>
       </c>
       <c r="E3">
-        <v>1.025236468151234</v>
+        <v>1.051615880079835</v>
       </c>
       <c r="F3">
-        <v>1.056222956630442</v>
+        <v>1.073703333775923</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057952095953174</v>
+        <v>1.051090693577514</v>
       </c>
       <c r="J3">
-        <v>1.042551350163239</v>
+        <v>1.05987736903089</v>
       </c>
       <c r="K3">
-        <v>1.065574707739047</v>
+        <v>1.068797574889382</v>
       </c>
       <c r="L3">
-        <v>1.035556313665287</v>
+        <v>1.054181662527473</v>
       </c>
       <c r="M3">
-        <v>1.06618365321025</v>
+        <v>1.076213487385941</v>
       </c>
       <c r="N3">
-        <v>1.044031892662782</v>
+        <v>1.061382516464547</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.026875980660823</v>
+        <v>1.056091382187822</v>
       </c>
       <c r="D4">
-        <v>1.058339407284038</v>
+        <v>1.066840266128102</v>
       </c>
       <c r="E4">
-        <v>1.028747745450808</v>
+        <v>1.052373531253224</v>
       </c>
       <c r="F4">
-        <v>1.059464644016149</v>
+        <v>1.074400505318449</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059358477276292</v>
+        <v>1.051339513624125</v>
       </c>
       <c r="J4">
-        <v>1.045616315925305</v>
+        <v>1.060528057922242</v>
       </c>
       <c r="K4">
-        <v>1.067781245258881</v>
+        <v>1.069248661828744</v>
       </c>
       <c r="L4">
-        <v>1.038511162509947</v>
+        <v>1.054816782168625</v>
       </c>
       <c r="M4">
-        <v>1.068894687197884</v>
+        <v>1.076791086608687</v>
       </c>
       <c r="N4">
-        <v>1.047101211027787</v>
+        <v>1.06203412940876</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.028622263905543</v>
+        <v>1.056460454426258</v>
       </c>
       <c r="D5">
-        <v>1.059472578043296</v>
+        <v>1.067080352540554</v>
       </c>
       <c r="E5">
-        <v>1.030203364596352</v>
+        <v>1.052691972817789</v>
       </c>
       <c r="F5">
-        <v>1.060809404479375</v>
+        <v>1.074693569394882</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059938818733084</v>
+        <v>1.05144377432063</v>
       </c>
       <c r="J5">
-        <v>1.046884933485167</v>
+        <v>1.060801355072274</v>
       </c>
       <c r="K5">
-        <v>1.06869458982894</v>
+        <v>1.06943806137775</v>
       </c>
       <c r="L5">
-        <v>1.039734616320357</v>
+        <v>1.055083573813426</v>
       </c>
       <c r="M5">
-        <v>1.070017788825125</v>
+        <v>1.077033738584711</v>
       </c>
       <c r="N5">
-        <v>1.048371630170096</v>
+        <v>1.062307814672093</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.028913977037397</v>
+        <v>1.056522415277903</v>
       </c>
       <c r="D6">
-        <v>1.059661953922171</v>
+        <v>1.067120659167354</v>
       </c>
       <c r="E6">
-        <v>1.030446594564735</v>
+        <v>1.05274543623411</v>
       </c>
       <c r="F6">
-        <v>1.061034161145356</v>
+        <v>1.074742774608786</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060035633520298</v>
+        <v>1.051461260046177</v>
       </c>
       <c r="J6">
-        <v>1.047096799847778</v>
+        <v>1.060847228135595</v>
       </c>
       <c r="K6">
-        <v>1.068847123844619</v>
+        <v>1.069469848502136</v>
       </c>
       <c r="L6">
-        <v>1.039938964250299</v>
+        <v>1.05512835690235</v>
       </c>
       <c r="M6">
-        <v>1.07020540895219</v>
+        <v>1.077074470945911</v>
       </c>
       <c r="N6">
-        <v>1.048583797407243</v>
+        <v>1.062353752880425</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.026899415597552</v>
+        <v>1.056096314287989</v>
       </c>
       <c r="D7">
-        <v>1.058354608710675</v>
+        <v>1.066843474505972</v>
       </c>
       <c r="E7">
-        <v>1.028767274836611</v>
+        <v>1.052377786576487</v>
       </c>
       <c r="F7">
-        <v>1.059482682593835</v>
+        <v>1.074404421358739</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059366274104922</v>
+        <v>1.05134090810836</v>
       </c>
       <c r="J7">
-        <v>1.045633344212783</v>
+        <v>1.060531710720979</v>
       </c>
       <c r="K7">
-        <v>1.067793504758511</v>
+        <v>1.069251193526413</v>
       </c>
       <c r="L7">
-        <v>1.038527582946662</v>
+        <v>1.054820347884314</v>
       </c>
       <c r="M7">
-        <v>1.068909758475766</v>
+        <v>1.076794329605487</v>
       </c>
       <c r="N7">
-        <v>1.047118263497385</v>
+        <v>1.06203778739489</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.018253318727572</v>
+        <v>1.0543140970699</v>
       </c>
       <c r="D8">
-        <v>1.052756897272369</v>
+        <v>1.065684167597087</v>
       </c>
       <c r="E8">
-        <v>1.021571095761736</v>
+        <v>1.050840427861336</v>
       </c>
       <c r="F8">
-        <v>1.052842351384203</v>
+        <v>1.072989928597563</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056474779817105</v>
+        <v>1.050834941342777</v>
       </c>
       <c r="J8">
-        <v>1.039344963069854</v>
+        <v>1.059210750120145</v>
       </c>
       <c r="K8">
-        <v>1.063266693110557</v>
+        <v>1.068335234109851</v>
       </c>
       <c r="L8">
-        <v>1.032466590244818</v>
+        <v>1.053531109524756</v>
       </c>
       <c r="M8">
-        <v>1.063351129275363</v>
+        <v>1.07562193198622</v>
       </c>
       <c r="N8">
-        <v>1.040820952131946</v>
+        <v>1.060714950878487</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002070437995217</v>
+        <v>1.051168877443448</v>
       </c>
       <c r="D9">
-        <v>1.042341792728783</v>
+        <v>1.063638549993999</v>
       </c>
       <c r="E9">
-        <v>1.008150855441605</v>
+        <v>1.048128810662596</v>
       </c>
       <c r="F9">
-        <v>1.040495318915968</v>
+        <v>1.070496446728738</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050995430569374</v>
+        <v>1.049932317708758</v>
       </c>
       <c r="J9">
-        <v>1.027550295011057</v>
+        <v>1.056874776987457</v>
       </c>
       <c r="K9">
-        <v>1.05478332523425</v>
+        <v>1.066713527087278</v>
       </c>
       <c r="L9">
-        <v>1.021113060548418</v>
+        <v>1.051252323791127</v>
       </c>
       <c r="M9">
-        <v>1.052963860487842</v>
+        <v>1.073550452023513</v>
       </c>
       <c r="N9">
-        <v>1.029009534291639</v>
+        <v>1.058375660396011</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9905410805173914</v>
+        <v>1.049068641987648</v>
       </c>
       <c r="D10">
-        <v>1.034975855794594</v>
+        <v>1.062272886808031</v>
       </c>
       <c r="E10">
-        <v>0.9986291626969582</v>
+        <v>1.046319159200043</v>
       </c>
       <c r="F10">
-        <v>1.031765965292931</v>
+        <v>1.068833386807076</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.047051229741744</v>
+        <v>1.049323088141541</v>
       </c>
       <c r="J10">
-        <v>1.019135078083308</v>
+        <v>1.055311738655989</v>
       </c>
       <c r="K10">
-        <v>1.048741076265121</v>
+        <v>1.065627168982403</v>
       </c>
       <c r="L10">
-        <v>1.013023212224164</v>
+        <v>1.049728289300288</v>
       </c>
       <c r="M10">
-        <v>1.045584422194647</v>
+        <v>1.072165636180277</v>
       </c>
       <c r="N10">
-        <v>1.020582366790614</v>
+        <v>1.056810402370829</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9853464549698525</v>
+        <v>1.048158349939417</v>
       </c>
       <c r="D11">
-        <v>1.03167295041718</v>
+        <v>1.061681071434361</v>
       </c>
       <c r="E11">
-        <v>0.9943500396891209</v>
+        <v>1.04553507113331</v>
       </c>
       <c r="F11">
-        <v>1.027851780442068</v>
+        <v>1.068113067390117</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045265853328849</v>
+        <v>1.049057498280904</v>
       </c>
       <c r="J11">
-        <v>1.015341805196361</v>
+        <v>1.054633531860031</v>
       </c>
       <c r="K11">
-        <v>1.046021298504768</v>
+        <v>1.065155510938441</v>
       </c>
       <c r="L11">
-        <v>1.009379298383966</v>
+        <v>1.049067182823979</v>
       </c>
       <c r="M11">
-        <v>1.042266896533528</v>
+        <v>1.07156506719833</v>
       </c>
       <c r="N11">
-        <v>1.016783707021073</v>
+        <v>1.056131232443429</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9833839709218948</v>
+        <v>1.047820090460495</v>
       </c>
       <c r="D12">
-        <v>1.030427806167335</v>
+        <v>1.061461172372349</v>
       </c>
       <c r="E12">
-        <v>0.992735216084194</v>
+        <v>1.045243747981614</v>
       </c>
       <c r="F12">
-        <v>1.026376148747194</v>
+        <v>1.067845476208698</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044590231979877</v>
+        <v>1.048958576398692</v>
       </c>
       <c r="J12">
-        <v>1.013908587037521</v>
+        <v>1.054381401953852</v>
       </c>
       <c r="K12">
-        <v>1.044994387334149</v>
+        <v>1.064980125796466</v>
       </c>
       <c r="L12">
-        <v>1.008002934055017</v>
+        <v>1.048821436738487</v>
       </c>
       <c r="M12">
-        <v>1.041014888379224</v>
+        <v>1.071341846889252</v>
       </c>
       <c r="N12">
-        <v>1.015348453528054</v>
+        <v>1.055878744483864</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9838064667914048</v>
+        <v>1.047892654520919</v>
       </c>
       <c r="D13">
-        <v>1.030695743562252</v>
+        <v>1.06150834476757</v>
       </c>
       <c r="E13">
-        <v>0.9930827820181248</v>
+        <v>1.04530624136564</v>
       </c>
       <c r="F13">
-        <v>1.026693686740209</v>
+        <v>1.067902876925884</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044735732515424</v>
+        <v>1.048979807713867</v>
       </c>
       <c r="J13">
-        <v>1.014217144270614</v>
+        <v>1.054435494397354</v>
       </c>
       <c r="K13">
-        <v>1.045215436734408</v>
+        <v>1.065017755140363</v>
       </c>
       <c r="L13">
-        <v>1.008299231939609</v>
+        <v>1.048874158378823</v>
       </c>
       <c r="M13">
-        <v>1.041284364972863</v>
+        <v>1.071389734869992</v>
       </c>
       <c r="N13">
-        <v>1.015657448947811</v>
+        <v>1.05593291374484</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9851849238812707</v>
+        <v>1.048130392117595</v>
       </c>
       <c r="D14">
-        <v>1.031570407442466</v>
+        <v>1.061662895995105</v>
       </c>
       <c r="E14">
-        <v>0.994217087102401</v>
+        <v>1.045510991879402</v>
       </c>
       <c r="F14">
-        <v>1.027730257082391</v>
+        <v>1.068090948893185</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045210265279946</v>
+        <v>1.049049326881437</v>
       </c>
       <c r="J14">
-        <v>1.015223840158957</v>
+        <v>1.054612695101634</v>
       </c>
       <c r="K14">
-        <v>1.045936760584338</v>
+        <v>1.065141017438817</v>
       </c>
       <c r="L14">
-        <v>1.009266004212388</v>
+        <v>1.049046873099997</v>
       </c>
       <c r="M14">
-        <v>1.042163816142679</v>
+        <v>1.071546618650456</v>
       </c>
       <c r="N14">
-        <v>1.016665574459785</v>
+        <v>1.056110366094445</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9860297862732722</v>
+        <v>1.048276851867102</v>
       </c>
       <c r="D15">
-        <v>1.032106852093172</v>
+        <v>1.061758110465463</v>
       </c>
       <c r="E15">
-        <v>0.9949125480223577</v>
+        <v>1.045637135004072</v>
       </c>
       <c r="F15">
-        <v>1.028365993804904</v>
+        <v>1.068206821878584</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045500964773205</v>
+        <v>1.049092124125498</v>
       </c>
       <c r="J15">
-        <v>1.01584083178015</v>
+        <v>1.054721845888801</v>
       </c>
       <c r="K15">
-        <v>1.046378948149008</v>
+        <v>1.065216938145469</v>
       </c>
       <c r="L15">
-        <v>1.009858583075743</v>
+        <v>1.049153264172502</v>
       </c>
       <c r="M15">
-        <v>1.042703016785246</v>
+        <v>1.071643261020876</v>
       </c>
       <c r="N15">
-        <v>1.01728344227985</v>
+        <v>1.05621967188825</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.990881354841421</v>
+        <v>1.049129036199212</v>
       </c>
       <c r="D16">
-        <v>1.035192564823445</v>
+        <v>1.062312153548978</v>
       </c>
       <c r="E16">
-        <v>0.9989097058700326</v>
+        <v>1.046371185792937</v>
       </c>
       <c r="F16">
-        <v>1.032022778367491</v>
+        <v>1.068881187584751</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.04716801922313</v>
+        <v>1.049340676667334</v>
       </c>
       <c r="J16">
-        <v>1.019383529494955</v>
+        <v>1.055356719216354</v>
       </c>
       <c r="K16">
-        <v>1.048919306316077</v>
+        <v>1.065658444755857</v>
       </c>
       <c r="L16">
-        <v>1.013261938135905</v>
+        <v>1.049772139443187</v>
       </c>
       <c r="M16">
-        <v>1.04580190716892</v>
+        <v>1.072205474118447</v>
       </c>
       <c r="N16">
-        <v>1.020831171031763</v>
+        <v>1.056855446808749</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9938687183220027</v>
+        <v>1.049663350913751</v>
       </c>
       <c r="D17">
-        <v>1.037096939690419</v>
+        <v>1.062659562309366</v>
       </c>
       <c r="E17">
-        <v>1.001373926281944</v>
+        <v>1.046831501092093</v>
       </c>
       <c r="F17">
-        <v>1.034279578417794</v>
+        <v>1.06930414355282</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048192422762871</v>
+        <v>1.049496107223655</v>
       </c>
       <c r="J17">
-        <v>1.021564568865994</v>
+        <v>1.055754581143331</v>
       </c>
       <c r="K17">
-        <v>1.050484354488067</v>
+        <v>1.065935052469657</v>
       </c>
       <c r="L17">
-        <v>1.01535790840284</v>
+        <v>1.050160022978745</v>
       </c>
       <c r="M17">
-        <v>1.047712122164521</v>
+        <v>1.072557884031992</v>
       </c>
       <c r="N17">
-        <v>1.023015307728877</v>
+        <v>1.057253873745298</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9955918624108312</v>
+        <v>1.049974923431394</v>
       </c>
       <c r="D18">
-        <v>1.038196879078544</v>
+        <v>1.062862154293323</v>
       </c>
       <c r="E18">
-        <v>1.002796335632836</v>
+        <v>1.047099947482718</v>
       </c>
       <c r="F18">
-        <v>1.035583084982593</v>
+        <v>1.069550827109209</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048782520250163</v>
+        <v>1.049586594660489</v>
       </c>
       <c r="J18">
-        <v>1.022822444524711</v>
+        <v>1.055986512329428</v>
       </c>
       <c r="K18">
-        <v>1.051387321658324</v>
+        <v>1.066096271802321</v>
       </c>
       <c r="L18">
-        <v>1.016566974625926</v>
+        <v>1.05038615431865</v>
       </c>
       <c r="M18">
-        <v>1.048814629932405</v>
+        <v>1.072763348724302</v>
       </c>
       <c r="N18">
-        <v>1.02427496971531</v>
+        <v>1.057486134300282</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9961762039659791</v>
+        <v>1.05008114746938</v>
       </c>
       <c r="D19">
-        <v>1.038570125746239</v>
+        <v>1.062931225215128</v>
       </c>
       <c r="E19">
-        <v>1.003278862791842</v>
+        <v>1.047191472765771</v>
       </c>
       <c r="F19">
-        <v>1.03602541244241</v>
+        <v>1.069634936575821</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048982492861578</v>
+        <v>1.049617419300179</v>
       </c>
       <c r="J19">
-        <v>1.023248975026153</v>
+        <v>1.056065572078664</v>
       </c>
       <c r="K19">
-        <v>1.051693563295857</v>
+        <v>1.066151222900491</v>
       </c>
       <c r="L19">
-        <v>1.016976996833609</v>
+        <v>1.050463239919883</v>
       </c>
       <c r="M19">
-        <v>1.049188613462349</v>
+        <v>1.072833391656034</v>
       </c>
       <c r="N19">
-        <v>1.024702105938988</v>
+        <v>1.057565306323431</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9935502200031672</v>
+        <v>1.04960603274888</v>
       </c>
       <c r="D20">
-        <v>1.036893749270396</v>
+        <v>1.062622293370693</v>
       </c>
       <c r="E20">
-        <v>1.001111096002564</v>
+        <v>1.046782118579153</v>
       </c>
       <c r="F20">
-        <v>1.034038784605983</v>
+        <v>1.069258766412439</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048083286981143</v>
+        <v>1.049479448855158</v>
       </c>
       <c r="J20">
-        <v>1.021332054052741</v>
+        <v>1.055711908306424</v>
       </c>
       <c r="K20">
-        <v>1.050317471264804</v>
+        <v>1.065905387633637</v>
       </c>
       <c r="L20">
-        <v>1.015134436222565</v>
+        <v>1.050118418618941</v>
       </c>
       <c r="M20">
-        <v>1.047508392624654</v>
+        <v>1.072520083111741</v>
       </c>
       <c r="N20">
-        <v>1.02278246271792</v>
+        <v>1.057211140308068</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9847799348338501</v>
+        <v>1.048060388127325</v>
       </c>
       <c r="D21">
-        <v>1.031313356638575</v>
+        <v>1.061617386521534</v>
       </c>
       <c r="E21">
-        <v>0.9938837791265616</v>
+        <v>1.045450700133919</v>
       </c>
       <c r="F21">
-        <v>1.027425626058811</v>
+        <v>1.068035567298291</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045070877902912</v>
+        <v>1.049028862681328</v>
       </c>
       <c r="J21">
-        <v>1.014928077386818</v>
+        <v>1.054560519836216</v>
       </c>
       <c r="K21">
-        <v>1.045724818340887</v>
+        <v>1.065104725029638</v>
       </c>
       <c r="L21">
-        <v>1.008981959103732</v>
+        <v>1.048996017959489</v>
       </c>
       <c r="M21">
-        <v>1.041905396164928</v>
+        <v>1.07150042422892</v>
       </c>
       <c r="N21">
-        <v>1.016369391670585</v>
+        <v>1.056058116734166</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9790734655758548</v>
+        <v>1.04708778795864</v>
       </c>
       <c r="D22">
-        <v>1.027698149561087</v>
+        <v>1.060985141722746</v>
       </c>
       <c r="E22">
-        <v>0.9891918103968717</v>
+        <v>1.044613131997628</v>
       </c>
       <c r="F22">
-        <v>1.023141059523395</v>
+        <v>1.06726630460784</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.043104340310474</v>
+        <v>1.048743998665833</v>
       </c>
       <c r="J22">
-        <v>1.010760437858838</v>
+        <v>1.053835358161305</v>
       </c>
       <c r="K22">
-        <v>1.042740170938547</v>
+        <v>1.064600214715352</v>
       </c>
       <c r="L22">
-        <v>1.004980463947681</v>
+        <v>1.048289267336602</v>
       </c>
       <c r="M22">
-        <v>1.038267616411528</v>
+        <v>1.070858500292446</v>
       </c>
       <c r="N22">
-        <v>1.012195833616441</v>
+        <v>1.055331925246499</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9821177324851751</v>
+        <v>1.047603458406402</v>
       </c>
       <c r="D23">
-        <v>1.029625199777782</v>
+        <v>1.061320346877981</v>
       </c>
       <c r="E23">
-        <v>0.991693820750297</v>
+        <v>1.045057186698163</v>
       </c>
       <c r="F23">
-        <v>1.025424952650066</v>
+        <v>1.067674123855245</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044154006305962</v>
+        <v>1.048895158968718</v>
       </c>
       <c r="J23">
-        <v>1.012983814199878</v>
+        <v>1.054219898522299</v>
       </c>
       <c r="K23">
-        <v>1.044331997199582</v>
+        <v>1.064867770091235</v>
       </c>
       <c r="L23">
-        <v>1.007114966657983</v>
+        <v>1.048664030009252</v>
       </c>
       <c r="M23">
-        <v>1.040207467747196</v>
+        <v>1.071198875031695</v>
       </c>
       <c r="N23">
-        <v>1.014422367406909</v>
+        <v>1.055717011698913</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9936941952428217</v>
+        <v>1.049631932620328</v>
       </c>
       <c r="D24">
-        <v>1.03698559571258</v>
+        <v>1.062639133741045</v>
       </c>
       <c r="E24">
-        <v>1.001229903685802</v>
+        <v>1.046804432558504</v>
       </c>
       <c r="F24">
-        <v>1.03414762855056</v>
+        <v>1.06927927044925</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048132623612684</v>
+        <v>1.049486976588053</v>
       </c>
       <c r="J24">
-        <v>1.021437161510026</v>
+        <v>1.055731190741424</v>
       </c>
       <c r="K24">
-        <v>1.050392909117709</v>
+        <v>1.065918792270851</v>
       </c>
       <c r="L24">
-        <v>1.01523545520793</v>
+        <v>1.050137218192178</v>
       </c>
       <c r="M24">
-        <v>1.04760048525309</v>
+        <v>1.072537163998731</v>
       </c>
       <c r="N24">
-        <v>1.022887719439851</v>
+        <v>1.057230450126337</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.006376426564608</v>
+        <v>1.051982577281191</v>
       </c>
       <c r="D25">
-        <v>1.045104721955594</v>
+        <v>1.064167725169602</v>
       </c>
       <c r="E25">
-        <v>1.011715490552422</v>
+        <v>1.048830152838565</v>
       </c>
       <c r="F25">
-        <v>1.043770065076876</v>
+        <v>1.071141195123336</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052460705444897</v>
+        <v>1.050166982058338</v>
       </c>
       <c r="J25">
-        <v>1.030691087688334</v>
+        <v>1.05747967886124</v>
       </c>
       <c r="K25">
-        <v>1.057040989014692</v>
+        <v>1.06713369261127</v>
       </c>
       <c r="L25">
-        <v>1.024134620677043</v>
+        <v>1.051842287349917</v>
       </c>
       <c r="M25">
-        <v>1.055724885305938</v>
+        <v>1.074086647738439</v>
       </c>
       <c r="N25">
-        <v>1.032154787254771</v>
+        <v>1.058981421299837</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_153/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_153/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>1.053854969768837</v>
+        <v>1.01596664106497</v>
       </c>
       <c r="D2">
-        <v>1.065385528528399</v>
+        <v>1.051280156761313</v>
       </c>
       <c r="E2">
-        <v>1.050444478685133</v>
+        <v>1.019670910152537</v>
       </c>
       <c r="F2">
-        <v>1.072625718102157</v>
+        <v>1.051091167096073</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05070393706763</v>
+        <v>1.055705427031252</v>
       </c>
       <c r="J2">
-        <v>1.058870125315519</v>
+        <v>1.037680059169802</v>
       </c>
       <c r="K2">
-        <v>1.068098910445472</v>
+        <v>1.062068479220884</v>
       </c>
       <c r="L2">
-        <v>1.053198738339188</v>
+        <v>1.030862834846545</v>
       </c>
       <c r="M2">
-        <v>1.075319734315271</v>
+        <v>1.06188181288984</v>
       </c>
       <c r="N2">
-        <v>1.060373842347568</v>
+        <v>1.03915368387739</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.055213145730025</v>
+        <v>1.022659918432742</v>
       </c>
       <c r="D3">
-        <v>1.066268974430999</v>
+        <v>1.055607126270034</v>
       </c>
       <c r="E3">
-        <v>1.051615880079835</v>
+        <v>1.025236468151233</v>
       </c>
       <c r="F3">
-        <v>1.073703333775923</v>
+        <v>1.056222956630442</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051090693577514</v>
+        <v>1.057952095953173</v>
       </c>
       <c r="J3">
-        <v>1.05987736903089</v>
+        <v>1.042551350163238</v>
       </c>
       <c r="K3">
-        <v>1.068797574889382</v>
+        <v>1.065574707739047</v>
       </c>
       <c r="L3">
-        <v>1.054181662527473</v>
+        <v>1.035556313665287</v>
       </c>
       <c r="M3">
-        <v>1.076213487385941</v>
+        <v>1.066183653210249</v>
       </c>
       <c r="N3">
-        <v>1.061382516464547</v>
+        <v>1.044031892662781</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.056091382187822</v>
+        <v>1.026875980660823</v>
       </c>
       <c r="D4">
-        <v>1.066840266128102</v>
+        <v>1.058339407284038</v>
       </c>
       <c r="E4">
-        <v>1.052373531253224</v>
+        <v>1.028747745450809</v>
       </c>
       <c r="F4">
-        <v>1.074400505318449</v>
+        <v>1.059464644016149</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051339513624125</v>
+        <v>1.059358477276292</v>
       </c>
       <c r="J4">
-        <v>1.060528057922242</v>
+        <v>1.045616315925305</v>
       </c>
       <c r="K4">
-        <v>1.069248661828744</v>
+        <v>1.067781245258882</v>
       </c>
       <c r="L4">
-        <v>1.054816782168625</v>
+        <v>1.038511162509947</v>
       </c>
       <c r="M4">
-        <v>1.076791086608687</v>
+        <v>1.068894687197885</v>
       </c>
       <c r="N4">
-        <v>1.06203412940876</v>
+        <v>1.047101211027787</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.056460454426258</v>
+        <v>1.028622263905544</v>
       </c>
       <c r="D5">
-        <v>1.067080352540554</v>
+        <v>1.059472578043296</v>
       </c>
       <c r="E5">
-        <v>1.052691972817789</v>
+        <v>1.030203364596353</v>
       </c>
       <c r="F5">
-        <v>1.074693569394882</v>
+        <v>1.060809404479376</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05144377432063</v>
+        <v>1.059938818733084</v>
       </c>
       <c r="J5">
-        <v>1.060801355072274</v>
+        <v>1.046884933485168</v>
       </c>
       <c r="K5">
-        <v>1.06943806137775</v>
+        <v>1.06869458982894</v>
       </c>
       <c r="L5">
-        <v>1.055083573813426</v>
+        <v>1.039734616320357</v>
       </c>
       <c r="M5">
-        <v>1.077033738584711</v>
+        <v>1.070017788825125</v>
       </c>
       <c r="N5">
-        <v>1.062307814672093</v>
+        <v>1.048371630170097</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.056522415277903</v>
+        <v>1.028913977037396</v>
       </c>
       <c r="D6">
-        <v>1.067120659167354</v>
+        <v>1.05966195392217</v>
       </c>
       <c r="E6">
-        <v>1.05274543623411</v>
+        <v>1.030446594564735</v>
       </c>
       <c r="F6">
-        <v>1.074742774608786</v>
+        <v>1.061034161145356</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051461260046177</v>
+        <v>1.060035633520298</v>
       </c>
       <c r="J6">
-        <v>1.060847228135595</v>
+        <v>1.047096799847777</v>
       </c>
       <c r="K6">
-        <v>1.069469848502136</v>
+        <v>1.068847123844618</v>
       </c>
       <c r="L6">
-        <v>1.05512835690235</v>
+        <v>1.039938964250299</v>
       </c>
       <c r="M6">
-        <v>1.077074470945911</v>
+        <v>1.07020540895219</v>
       </c>
       <c r="N6">
-        <v>1.062353752880425</v>
+        <v>1.048583797407243</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.056096314287989</v>
+        <v>1.026899415597552</v>
       </c>
       <c r="D7">
-        <v>1.066843474505972</v>
+        <v>1.058354608710675</v>
       </c>
       <c r="E7">
-        <v>1.052377786576487</v>
+        <v>1.028767274836611</v>
       </c>
       <c r="F7">
-        <v>1.074404421358739</v>
+        <v>1.059482682593836</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05134090810836</v>
+        <v>1.059366274104922</v>
       </c>
       <c r="J7">
-        <v>1.060531710720979</v>
+        <v>1.045633344212783</v>
       </c>
       <c r="K7">
-        <v>1.069251193526413</v>
+        <v>1.067793504758511</v>
       </c>
       <c r="L7">
-        <v>1.054820347884314</v>
+        <v>1.038527582946662</v>
       </c>
       <c r="M7">
-        <v>1.076794329605487</v>
+        <v>1.068909758475767</v>
       </c>
       <c r="N7">
-        <v>1.06203778739489</v>
+        <v>1.047118263497386</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.0543140970699</v>
+        <v>1.018253318727571</v>
       </c>
       <c r="D8">
-        <v>1.065684167597087</v>
+        <v>1.052756897272368</v>
       </c>
       <c r="E8">
-        <v>1.050840427861336</v>
+        <v>1.021571095761735</v>
       </c>
       <c r="F8">
-        <v>1.072989928597563</v>
+        <v>1.052842351384202</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050834941342777</v>
+        <v>1.056474779817105</v>
       </c>
       <c r="J8">
-        <v>1.059210750120145</v>
+        <v>1.039344963069853</v>
       </c>
       <c r="K8">
-        <v>1.068335234109851</v>
+        <v>1.063266693110556</v>
       </c>
       <c r="L8">
-        <v>1.053531109524756</v>
+        <v>1.032466590244817</v>
       </c>
       <c r="M8">
-        <v>1.07562193198622</v>
+        <v>1.063351129275363</v>
       </c>
       <c r="N8">
-        <v>1.060714950878487</v>
+        <v>1.040820952131946</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.051168877443448</v>
+        <v>1.002070437995216</v>
       </c>
       <c r="D9">
-        <v>1.063638549993999</v>
+        <v>1.042341792728782</v>
       </c>
       <c r="E9">
-        <v>1.048128810662596</v>
+        <v>1.008150855441605</v>
       </c>
       <c r="F9">
-        <v>1.070496446728738</v>
+        <v>1.040495318915968</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049932317708758</v>
+        <v>1.050995430569374</v>
       </c>
       <c r="J9">
-        <v>1.056874776987457</v>
+        <v>1.027550295011056</v>
       </c>
       <c r="K9">
-        <v>1.066713527087278</v>
+        <v>1.05478332523425</v>
       </c>
       <c r="L9">
-        <v>1.051252323791127</v>
+        <v>1.021113060548418</v>
       </c>
       <c r="M9">
-        <v>1.073550452023513</v>
+        <v>1.052963860487842</v>
       </c>
       <c r="N9">
-        <v>1.058375660396011</v>
+        <v>1.029009534291638</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.049068641987648</v>
+        <v>0.9905410805173913</v>
       </c>
       <c r="D10">
-        <v>1.062272886808031</v>
+        <v>1.034975855794594</v>
       </c>
       <c r="E10">
-        <v>1.046319159200043</v>
+        <v>0.9986291626969582</v>
       </c>
       <c r="F10">
-        <v>1.068833386807076</v>
+        <v>1.031765965292931</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049323088141541</v>
+        <v>1.047051229741744</v>
       </c>
       <c r="J10">
-        <v>1.055311738655989</v>
+        <v>1.019135078083308</v>
       </c>
       <c r="K10">
-        <v>1.065627168982403</v>
+        <v>1.048741076265121</v>
       </c>
       <c r="L10">
-        <v>1.049728289300288</v>
+        <v>1.013023212224164</v>
       </c>
       <c r="M10">
-        <v>1.072165636180277</v>
+        <v>1.045584422194647</v>
       </c>
       <c r="N10">
-        <v>1.056810402370829</v>
+        <v>1.020582366790613</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.048158349939417</v>
+        <v>0.9853464549698517</v>
       </c>
       <c r="D11">
-        <v>1.061681071434361</v>
+        <v>1.031672950417179</v>
       </c>
       <c r="E11">
-        <v>1.04553507113331</v>
+        <v>0.9943500396891204</v>
       </c>
       <c r="F11">
-        <v>1.068113067390117</v>
+        <v>1.027851780442067</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049057498280904</v>
+        <v>1.045265853328848</v>
       </c>
       <c r="J11">
-        <v>1.054633531860031</v>
+        <v>1.015341805196361</v>
       </c>
       <c r="K11">
-        <v>1.065155510938441</v>
+        <v>1.046021298504767</v>
       </c>
       <c r="L11">
-        <v>1.049067182823979</v>
+        <v>1.009379298383965</v>
       </c>
       <c r="M11">
-        <v>1.07156506719833</v>
+        <v>1.042266896533528</v>
       </c>
       <c r="N11">
-        <v>1.056131232443429</v>
+        <v>1.016783707021072</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.047820090460495</v>
+        <v>0.9833839709218939</v>
       </c>
       <c r="D12">
-        <v>1.061461172372349</v>
+        <v>1.030427806167335</v>
       </c>
       <c r="E12">
-        <v>1.045243747981614</v>
+        <v>0.9927352160841931</v>
       </c>
       <c r="F12">
-        <v>1.067845476208698</v>
+        <v>1.026376148747193</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048958576398692</v>
+        <v>1.044590231979876</v>
       </c>
       <c r="J12">
-        <v>1.054381401953852</v>
+        <v>1.01390858703752</v>
       </c>
       <c r="K12">
-        <v>1.064980125796466</v>
+        <v>1.044994387334149</v>
       </c>
       <c r="L12">
-        <v>1.048821436738487</v>
+        <v>1.008002934055016</v>
       </c>
       <c r="M12">
-        <v>1.071341846889252</v>
+        <v>1.041014888379223</v>
       </c>
       <c r="N12">
-        <v>1.055878744483864</v>
+        <v>1.015348453528053</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.047892654520919</v>
+        <v>0.9838064667914045</v>
       </c>
       <c r="D13">
-        <v>1.06150834476757</v>
+        <v>1.030695743562252</v>
       </c>
       <c r="E13">
-        <v>1.04530624136564</v>
+        <v>0.9930827820181247</v>
       </c>
       <c r="F13">
-        <v>1.067902876925884</v>
+        <v>1.026693686740209</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048979807713867</v>
+        <v>1.044735732515424</v>
       </c>
       <c r="J13">
-        <v>1.054435494397354</v>
+        <v>1.014217144270614</v>
       </c>
       <c r="K13">
-        <v>1.065017755140363</v>
+        <v>1.045215436734407</v>
       </c>
       <c r="L13">
-        <v>1.048874158378823</v>
+        <v>1.008299231939608</v>
       </c>
       <c r="M13">
-        <v>1.071389734869992</v>
+        <v>1.041284364972862</v>
       </c>
       <c r="N13">
-        <v>1.05593291374484</v>
+        <v>1.015657448947811</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.048130392117595</v>
+        <v>0.9851849238812695</v>
       </c>
       <c r="D14">
-        <v>1.061662895995105</v>
+        <v>1.031570407442464</v>
       </c>
       <c r="E14">
-        <v>1.045510991879402</v>
+        <v>0.9942170871023999</v>
       </c>
       <c r="F14">
-        <v>1.068090948893185</v>
+        <v>1.02773025708239</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049049326881437</v>
+        <v>1.045210265279946</v>
       </c>
       <c r="J14">
-        <v>1.054612695101634</v>
+        <v>1.015223840158956</v>
       </c>
       <c r="K14">
-        <v>1.065141017438817</v>
+        <v>1.045936760584337</v>
       </c>
       <c r="L14">
-        <v>1.049046873099997</v>
+        <v>1.009266004212387</v>
       </c>
       <c r="M14">
-        <v>1.071546618650456</v>
+        <v>1.042163816142677</v>
       </c>
       <c r="N14">
-        <v>1.056110366094445</v>
+        <v>1.016665574459784</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.048276851867102</v>
+        <v>0.9860297862732729</v>
       </c>
       <c r="D15">
-        <v>1.061758110465463</v>
+        <v>1.032106852093172</v>
       </c>
       <c r="E15">
-        <v>1.045637135004072</v>
+        <v>0.9949125480223584</v>
       </c>
       <c r="F15">
-        <v>1.068206821878584</v>
+        <v>1.028365993804905</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049092124125498</v>
+        <v>1.045500964773206</v>
       </c>
       <c r="J15">
-        <v>1.054721845888801</v>
+        <v>1.01584083178015</v>
       </c>
       <c r="K15">
-        <v>1.065216938145469</v>
+        <v>1.046378948149009</v>
       </c>
       <c r="L15">
-        <v>1.049153264172502</v>
+        <v>1.009858583075743</v>
       </c>
       <c r="M15">
-        <v>1.071643261020876</v>
+        <v>1.042703016785246</v>
       </c>
       <c r="N15">
-        <v>1.05621967188825</v>
+        <v>1.01728344227985</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.049129036199212</v>
+        <v>0.9908813548414214</v>
       </c>
       <c r="D16">
-        <v>1.062312153548978</v>
+        <v>1.035192564823445</v>
       </c>
       <c r="E16">
-        <v>1.046371185792937</v>
+        <v>0.9989097058700329</v>
       </c>
       <c r="F16">
-        <v>1.068881187584751</v>
+        <v>1.032022778367492</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049340676667334</v>
+        <v>1.047168019223131</v>
       </c>
       <c r="J16">
-        <v>1.055356719216354</v>
+        <v>1.019383529494956</v>
       </c>
       <c r="K16">
-        <v>1.065658444755857</v>
+        <v>1.048919306316078</v>
       </c>
       <c r="L16">
-        <v>1.049772139443187</v>
+        <v>1.013261938135905</v>
       </c>
       <c r="M16">
-        <v>1.072205474118447</v>
+        <v>1.04580190716892</v>
       </c>
       <c r="N16">
-        <v>1.056855446808749</v>
+        <v>1.020831171031763</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.049663350913751</v>
+        <v>0.9938687183220025</v>
       </c>
       <c r="D17">
-        <v>1.062659562309366</v>
+        <v>1.037096939690419</v>
       </c>
       <c r="E17">
-        <v>1.046831501092093</v>
+        <v>1.001373926281944</v>
       </c>
       <c r="F17">
-        <v>1.06930414355282</v>
+        <v>1.034279578417794</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049496107223655</v>
+        <v>1.048192422762871</v>
       </c>
       <c r="J17">
-        <v>1.055754581143331</v>
+        <v>1.021564568865993</v>
       </c>
       <c r="K17">
-        <v>1.065935052469657</v>
+        <v>1.050484354488066</v>
       </c>
       <c r="L17">
-        <v>1.050160022978745</v>
+        <v>1.015357908402839</v>
       </c>
       <c r="M17">
-        <v>1.072557884031992</v>
+        <v>1.047712122164521</v>
       </c>
       <c r="N17">
-        <v>1.057253873745298</v>
+        <v>1.023015307728877</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.049974923431394</v>
+        <v>0.9955918624108309</v>
       </c>
       <c r="D18">
-        <v>1.062862154293323</v>
+        <v>1.038196879078544</v>
       </c>
       <c r="E18">
-        <v>1.047099947482718</v>
+        <v>1.002796335632836</v>
       </c>
       <c r="F18">
-        <v>1.069550827109209</v>
+        <v>1.035583084982593</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049586594660489</v>
+        <v>1.048782520250163</v>
       </c>
       <c r="J18">
-        <v>1.055986512329428</v>
+        <v>1.02282244452471</v>
       </c>
       <c r="K18">
-        <v>1.066096271802321</v>
+        <v>1.051387321658324</v>
       </c>
       <c r="L18">
-        <v>1.05038615431865</v>
+        <v>1.016566974625925</v>
       </c>
       <c r="M18">
-        <v>1.072763348724302</v>
+        <v>1.048814629932405</v>
       </c>
       <c r="N18">
-        <v>1.057486134300282</v>
+        <v>1.02427496971531</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.05008114746938</v>
+        <v>0.9961762039659785</v>
       </c>
       <c r="D19">
-        <v>1.062931225215128</v>
+        <v>1.038570125746239</v>
       </c>
       <c r="E19">
-        <v>1.047191472765771</v>
+        <v>1.003278862791841</v>
       </c>
       <c r="F19">
-        <v>1.069634936575821</v>
+        <v>1.036025412442411</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049617419300179</v>
+        <v>1.048982492861578</v>
       </c>
       <c r="J19">
-        <v>1.056065572078664</v>
+        <v>1.023248975026153</v>
       </c>
       <c r="K19">
-        <v>1.066151222900491</v>
+        <v>1.051693563295857</v>
       </c>
       <c r="L19">
-        <v>1.050463239919883</v>
+        <v>1.016976996833609</v>
       </c>
       <c r="M19">
-        <v>1.072833391656034</v>
+        <v>1.049188613462349</v>
       </c>
       <c r="N19">
-        <v>1.057565306323431</v>
+        <v>1.024702105938988</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.04960603274888</v>
+        <v>0.9935502200031672</v>
       </c>
       <c r="D20">
-        <v>1.062622293370693</v>
+        <v>1.036893749270397</v>
       </c>
       <c r="E20">
-        <v>1.046782118579153</v>
+        <v>1.001111096002564</v>
       </c>
       <c r="F20">
-        <v>1.069258766412439</v>
+        <v>1.034038784605984</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049479448855158</v>
+        <v>1.048083286981143</v>
       </c>
       <c r="J20">
-        <v>1.055711908306424</v>
+        <v>1.021332054052741</v>
       </c>
       <c r="K20">
-        <v>1.065905387633637</v>
+        <v>1.050317471264804</v>
       </c>
       <c r="L20">
-        <v>1.050118418618941</v>
+        <v>1.015134436222565</v>
       </c>
       <c r="M20">
-        <v>1.072520083111741</v>
+        <v>1.047508392624654</v>
       </c>
       <c r="N20">
-        <v>1.057211140308068</v>
+        <v>1.02278246271792</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.048060388127325</v>
+        <v>0.9847799348338493</v>
       </c>
       <c r="D21">
-        <v>1.061617386521534</v>
+        <v>1.031313356638574</v>
       </c>
       <c r="E21">
-        <v>1.045450700133919</v>
+        <v>0.9938837791265608</v>
       </c>
       <c r="F21">
-        <v>1.068035567298291</v>
+        <v>1.027425626058809</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049028862681328</v>
+        <v>1.045070877902912</v>
       </c>
       <c r="J21">
-        <v>1.054560519836216</v>
+        <v>1.014928077386817</v>
       </c>
       <c r="K21">
-        <v>1.065104725029638</v>
+        <v>1.045724818340886</v>
       </c>
       <c r="L21">
-        <v>1.048996017959489</v>
+        <v>1.008981959103732</v>
       </c>
       <c r="M21">
-        <v>1.07150042422892</v>
+        <v>1.041905396164927</v>
       </c>
       <c r="N21">
-        <v>1.056058116734166</v>
+        <v>1.016369391670584</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.04708778795864</v>
+        <v>0.9790734655758537</v>
       </c>
       <c r="D22">
-        <v>1.060985141722746</v>
+        <v>1.027698149561086</v>
       </c>
       <c r="E22">
-        <v>1.044613131997628</v>
+        <v>0.9891918103968709</v>
       </c>
       <c r="F22">
-        <v>1.06726630460784</v>
+        <v>1.023141059523394</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048743998665833</v>
+        <v>1.043104340310474</v>
       </c>
       <c r="J22">
-        <v>1.053835358161305</v>
+        <v>1.010760437858838</v>
       </c>
       <c r="K22">
-        <v>1.064600214715352</v>
+        <v>1.042740170938546</v>
       </c>
       <c r="L22">
-        <v>1.048289267336602</v>
+        <v>1.00498046394768</v>
       </c>
       <c r="M22">
-        <v>1.070858500292446</v>
+        <v>1.038267616411528</v>
       </c>
       <c r="N22">
-        <v>1.055331925246499</v>
+        <v>1.01219583361644</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.047603458406402</v>
+        <v>0.9821177324851745</v>
       </c>
       <c r="D23">
-        <v>1.061320346877981</v>
+        <v>1.029625199777782</v>
       </c>
       <c r="E23">
-        <v>1.045057186698163</v>
+        <v>0.9916938207502967</v>
       </c>
       <c r="F23">
-        <v>1.067674123855245</v>
+        <v>1.025424952650066</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048895158968718</v>
+        <v>1.044154006305962</v>
       </c>
       <c r="J23">
-        <v>1.054219898522299</v>
+        <v>1.012983814199878</v>
       </c>
       <c r="K23">
-        <v>1.064867770091235</v>
+        <v>1.044331997199581</v>
       </c>
       <c r="L23">
-        <v>1.048664030009252</v>
+        <v>1.007114966657982</v>
       </c>
       <c r="M23">
-        <v>1.071198875031695</v>
+        <v>1.040207467747196</v>
       </c>
       <c r="N23">
-        <v>1.055717011698913</v>
+        <v>1.014422367406909</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.049631932620328</v>
+        <v>0.9936941952428212</v>
       </c>
       <c r="D24">
-        <v>1.062639133741045</v>
+        <v>1.03698559571258</v>
       </c>
       <c r="E24">
-        <v>1.046804432558504</v>
+        <v>1.001229903685801</v>
       </c>
       <c r="F24">
-        <v>1.06927927044925</v>
+        <v>1.03414762855056</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049486976588053</v>
+        <v>1.048132623612684</v>
       </c>
       <c r="J24">
-        <v>1.055731190741424</v>
+        <v>1.021437161510026</v>
       </c>
       <c r="K24">
-        <v>1.065918792270851</v>
+        <v>1.050392909117709</v>
       </c>
       <c r="L24">
-        <v>1.050137218192178</v>
+        <v>1.015235455207929</v>
       </c>
       <c r="M24">
-        <v>1.072537163998731</v>
+        <v>1.04760048525309</v>
       </c>
       <c r="N24">
-        <v>1.057230450126337</v>
+        <v>1.02288771943985</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.051982577281191</v>
+        <v>1.006376426564607</v>
       </c>
       <c r="D25">
-        <v>1.064167725169602</v>
+        <v>1.045104721955593</v>
       </c>
       <c r="E25">
-        <v>1.048830152838565</v>
+        <v>1.011715490552421</v>
       </c>
       <c r="F25">
-        <v>1.071141195123336</v>
+        <v>1.043770065076876</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050166982058338</v>
+        <v>1.052460705444896</v>
       </c>
       <c r="J25">
-        <v>1.05747967886124</v>
+        <v>1.030691087688333</v>
       </c>
       <c r="K25">
-        <v>1.06713369261127</v>
+        <v>1.057040989014691</v>
       </c>
       <c r="L25">
-        <v>1.051842287349917</v>
+        <v>1.024134620677042</v>
       </c>
       <c r="M25">
-        <v>1.074086647738439</v>
+        <v>1.055724885305938</v>
       </c>
       <c r="N25">
-        <v>1.058981421299837</v>
+        <v>1.03215478725477</v>
       </c>
     </row>
   </sheetData>
